--- a/PCB/0.1/BOM/Matthew_Johnson_Orthonite87_JLCPCB.xlsx
+++ b/PCB/0.1/BOM/Matthew_Johnson_Orthonite87_JLCPCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattr\Documents\GitHub\Orthonite87\PCB\0.1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1CD01E79-DA49-4069-9256-76836EA540F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E864D-C7E1-4CA0-8849-B28139DE69E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33060" windowHeight="12170"/>
+    <workbookView minimized="1" xWindow="4095" yWindow="13620" windowWidth="22845" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthonite87_PCB" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -581,7 +581,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -959,6 +965,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -998,7 +1005,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1314,11 +1321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1434,7 +1441,7 @@
       <c r="C5" s="4">
         <v>1608</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5">
@@ -1457,7 +1464,7 @@
       <c r="C6" s="4">
         <v>1608</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6">
@@ -1480,7 +1487,7 @@
       <c r="C7" s="4">
         <v>1608</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7">
@@ -1756,7 +1763,7 @@
       <c r="C19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E19">
